--- a/IM/202511_Service_Count_Report.xlsx
+++ b/IM/202511_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$49</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>服務次數統計表        篩選月份：202511</t>
   </si>
@@ -221,6 +221,105 @@
     <t>新北市淡水區中正路28號4樓(淡水)</t>
   </si>
   <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>13:40:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>THILF02306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市八里區中山路一段177號</t>
+  </si>
+  <si>
+    <t>八里凱旋門</t>
+  </si>
+  <si>
+    <t>PMQ4 L90</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>12:33:00</t>
+  </si>
+  <si>
+    <t>THILF02442</t>
+  </si>
+  <si>
+    <t>新北市八里區商港路46.48號</t>
+  </si>
+  <si>
+    <t>北縣商港店</t>
+  </si>
+  <si>
+    <t>16:20:00</t>
+  </si>
+  <si>
+    <t>16:40:00</t>
+  </si>
+  <si>
+    <t>THILF03458</t>
+  </si>
+  <si>
+    <t>新北市八里區龍米路一段215.217號</t>
+  </si>
+  <si>
+    <t>八里龍米店</t>
+  </si>
+  <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>THILF04243</t>
+  </si>
+  <si>
+    <t>新北市八里區龍米路二段57、59號</t>
+  </si>
+  <si>
+    <t>八里聖心店</t>
+  </si>
+  <si>
+    <t>14:10:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>THILF04259</t>
+  </si>
+  <si>
+    <t>新北市八里區中山路1段125、127號1樓</t>
+  </si>
+  <si>
+    <t>八里水灣店</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>15:20:00</t>
+  </si>
+  <si>
+    <t>THILF04528</t>
+  </si>
+  <si>
+    <t>新北市八里區中山路一段43、43-1號</t>
+  </si>
+  <si>
+    <t>八里鐵塔店</t>
+  </si>
+  <si>
     <t>16:45:00</t>
   </si>
   <si>
@@ -234,9 +333,6 @@
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
   </si>
   <si>
     <t>新北市淡水區濱海路三段140、142號</t>
@@ -256,7 +352,34 @@
     <t>17:15:00</t>
   </si>
   <si>
-    <t>PMQ4 L90</t>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>10:50:00</t>
+  </si>
+  <si>
+    <t>THILF04764</t>
+  </si>
+  <si>
+    <t>新北市八里區商港路8、10號</t>
+  </si>
+  <si>
+    <t>八里大船店</t>
+  </si>
+  <si>
+    <t>12:35:00</t>
+  </si>
+  <si>
+    <t>12:56:00</t>
+  </si>
+  <si>
+    <t>THILF05074</t>
+  </si>
+  <si>
+    <t>新北市八里區福德新村1號1樓</t>
+  </si>
+  <si>
+    <t>八里福德新村</t>
   </si>
   <si>
     <t>11:00:00</t>
@@ -283,12 +406,6 @@
     <t>湯家瑋</t>
   </si>
   <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
     <t>T252000136</t>
   </si>
   <si>
@@ -301,7 +418,76 @@
     <t>Pm</t>
   </si>
   <si>
-    <t>15:00:00</t>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>T301800171</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正區336-1號(新莊)</t>
+  </si>
+  <si>
+    <t>新莊</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>T301800174</t>
+  </si>
+  <si>
+    <t>新北市板橋區中山路1段10號5樓(板橋分校)</t>
+  </si>
+  <si>
+    <t>板橋</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>T302800123</t>
+  </si>
+  <si>
+    <t>新北市三重區正義北路218號(三重分校)</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>T302800154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台2)</t>
+  </si>
+  <si>
+    <t>櫃台2</t>
+  </si>
+  <si>
+    <t>設定傳真紙匣</t>
+  </si>
+  <si>
+    <t>T351800045</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣善美的股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股生鮮物流)</t>
+  </si>
+  <si>
+    <t>五股生鮮物流</t>
+  </si>
+  <si>
+    <t>pm</t>
   </si>
   <si>
     <t>T352500148</t>
@@ -317,6 +503,63 @@
   </si>
   <si>
     <t>13:30:00</t>
+  </si>
+  <si>
+    <t>T352800011</t>
+  </si>
+  <si>
+    <t>eS-3528A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯實業股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區水湳街74號2樓</t>
+  </si>
+  <si>
+    <t>蘆洲北二處</t>
+  </si>
+  <si>
+    <t>T352800029</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號4樓(五股)</t>
+  </si>
+  <si>
+    <t>五股4樓</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>送備用碳粉</t>
+  </si>
+  <si>
+    <t>T352800030</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股檢品)</t>
+  </si>
+  <si>
+    <t>五股檢品</t>
+  </si>
+  <si>
+    <t>T352800031</t>
+  </si>
+  <si>
+    <t>新北市五股區工商路128號1樓(五股DC廠工商運輸)</t>
+  </si>
+  <si>
+    <t>五股DC廠工商運輸</t>
+  </si>
+  <si>
+    <t>T352800032</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股運輸)</t>
+  </si>
+  <si>
+    <t>五股運輸</t>
   </si>
   <si>
     <t>THILF03921</t>
@@ -754,10 +997,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1463,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025110089</v>
+        <v>2025110559</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1475,41 +1718,39 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
         <v>0</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1517,7 +1758,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
@@ -1531,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025110401</v>
+        <v>2025110540</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1543,27 +1784,27 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
@@ -1583,19 +1824,21 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="3"/>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025110143</v>
+        <v>2025110660</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1607,27 +1850,27 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -1637,17 +1880,17 @@
       <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
@@ -1661,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025110144</v>
+        <v>2025110620</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1673,27 +1916,27 @@
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>40</v>
@@ -1713,7 +1956,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -1727,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025110302</v>
+        <v>2025110572</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1736,44 +1979,38 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="8" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>75</v>
-      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>41</v>
@@ -1785,17 +2022,21 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025110303</v>
+        <v>2025110603</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1804,46 +2045,42 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3">
-        <v>75</v>
-      </c>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>664</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1851,19 +2088,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB16" s="3"/>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025110341</v>
+        <v>2025110089</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1872,48 +2111,44 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>6296</v>
-      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>12863</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -1921,7 +2156,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -1935,7 +2170,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025110342</v>
+        <v>2025110401</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1944,46 +2179,42 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3">
-        <v>6296</v>
-      </c>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>12863</v>
-      </c>
-      <c r="S18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -1991,7 +2222,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2003,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025110148</v>
+        <v>2025110517</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2012,30 +2243,30 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2053,11 +2284,9 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
@@ -2071,7 +2300,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025110150</v>
+        <v>2025110541</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2080,30 +2309,30 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>40</v>
@@ -2121,11 +2350,9 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2135,37 +2362,1921 @@
       </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB21" s="9">
-        <v>10</v>
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2025110143</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2025110144</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2025110302</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7">
+        <v>75</v>
+      </c>
+      <c r="R23" s="7">
+        <v>664</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2025110303</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3">
+        <v>75</v>
+      </c>
+      <c r="R24" s="3">
+        <v>664</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2025110461</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7">
+        <v>48705</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2025110462</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
+        <v>48705</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2025110459</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7">
+        <v>80259</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2025110460</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
+        <v>80259</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2025110458</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
+        <v>4068</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2025110524</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
+        <v>3173</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2025110679</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
+        <v>117807</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2025110680</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
+        <v>117807</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2025110341</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7">
+        <v>6296</v>
+      </c>
+      <c r="R33" s="7">
+        <v>12863</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2025110342</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3">
+        <v>6296</v>
+      </c>
+      <c r="R34" s="3">
+        <v>12863</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2025110664</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7">
+        <v>5000</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2025110665</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2025110672</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7">
+        <v>2471</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2025110673</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
+        <v>2471</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2025110687</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <v>2471</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2025110670</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
+        <v>12597</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2025110671</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>12597</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2025110688</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
+        <v>12597</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2025110675</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
+        <v>32313</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2025110676</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
+        <v>32313</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2025110666</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7">
+        <v>19808</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2025110667</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>19808</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2025110148</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2025110150</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202511_Service_Count_Report.xlsx
+++ b/IM/202511_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$76</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t>服務次數統計表        篩選月份：202511</t>
   </si>
@@ -152,18 +152,18 @@
     <t>士林</t>
   </si>
   <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>服務</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>PM抄表</t>
-  </si>
-  <si>
-    <t>抄表</t>
-  </si>
-  <si>
     <t>16:06:00</t>
   </si>
   <si>
@@ -185,6 +185,30 @@
     <t>淡水</t>
   </si>
   <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>14:45:00</t>
+  </si>
+  <si>
+    <t>15:02:00</t>
+  </si>
+  <si>
+    <t>T302800001</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>財團法人台北國際社區青年育樂活動中心基金會</t>
+  </si>
+  <si>
+    <t>台北市士林區天玉街26-1號</t>
+  </si>
+  <si>
+    <t>天玉街</t>
+  </si>
+  <si>
     <t>15:15:00</t>
   </si>
   <si>
@@ -194,9 +218,6 @@
     <t>T302800006</t>
   </si>
   <si>
-    <t>eS-3028A 黑白複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">信宇顧問有限公司 </t>
   </si>
   <si>
@@ -260,6 +281,57 @@
     <t>北縣商港店</t>
   </si>
   <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>12:50:00</t>
+  </si>
+  <si>
+    <t>13:10:00</t>
+  </si>
+  <si>
+    <t>THILF02958</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區正和街47號</t>
+  </si>
+  <si>
+    <t>北縣蘆旺店</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>THILF03359</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段656號</t>
+  </si>
+  <si>
+    <t>三重金陵店</t>
+  </si>
+  <si>
+    <t>PMQ4</t>
+  </si>
+  <si>
+    <t>10:45:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>THILF03452</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區信義路35號</t>
+  </si>
+  <si>
+    <t>蘆洲信義店</t>
+  </si>
+  <si>
     <t>16:20:00</t>
   </si>
   <si>
@@ -275,6 +347,60 @@
     <t>八里龍米店</t>
   </si>
   <si>
+    <t>THILF03929</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區中山一路293/293-1號全部</t>
+  </si>
+  <si>
+    <t>蘆洲中山一</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>已經將HUB網路線插至正確位置</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
+    <t>14:10:00</t>
+  </si>
+  <si>
+    <t>THILF04125</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區長樂路22號</t>
+  </si>
+  <si>
+    <t>蘆洲長樂店</t>
+  </si>
+  <si>
+    <t>11:50:00</t>
+  </si>
+  <si>
+    <t>THILF04218</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區得勝街108號一樓</t>
+  </si>
+  <si>
+    <t>蘆洲湧蓮店</t>
+  </si>
+  <si>
     <t>15:40:00</t>
   </si>
   <si>
@@ -290,9 +416,6 @@
     <t>八里聖心店</t>
   </si>
   <si>
-    <t>14:10:00</t>
-  </si>
-  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -329,19 +452,10 @@
     <t>THILF04541</t>
   </si>
   <si>
-    <t>一般件</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>新北市淡水區濱海路三段140、142號</t>
   </si>
   <si>
     <t>淡水海天店</t>
-  </si>
-  <si>
-    <t>維修</t>
   </si>
   <si>
     <t>更換多卡機
@@ -352,6 +466,18 @@
     <t>17:15:00</t>
   </si>
   <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>THILF04609</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區中正路185巷78弄1、3號</t>
+  </si>
+  <si>
+    <t>蘆洲洲正店</t>
+  </si>
+  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -367,6 +493,18 @@
     <t>八里大船店</t>
   </si>
   <si>
+    <t>11:10:00</t>
+  </si>
+  <si>
+    <t>THILF04977</t>
+  </si>
+  <si>
+    <t>新北市三重區中興北街153號</t>
+  </si>
+  <si>
+    <t>三重初戀店</t>
+  </si>
+  <si>
     <t>12:35:00</t>
   </si>
   <si>
@@ -382,7 +520,52 @@
     <t>八里福德新村</t>
   </si>
   <si>
-    <t>11:00:00</t>
+    <t>15:55:00</t>
+  </si>
+  <si>
+    <t>16:18:00</t>
+  </si>
+  <si>
+    <t>THILF05197</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區永安南路二段268之1、268之2</t>
+  </si>
+  <si>
+    <t>蘆洲鴻悅店</t>
+  </si>
+  <si>
+    <t>THILF05316</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街209號1樓及地下室</t>
+  </si>
+  <si>
+    <t>三重五常店</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>THILF05341</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區中山二路77號</t>
+  </si>
+  <si>
+    <t>蘆洲切仔麵</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>THILF0D087</t>
+  </si>
+  <si>
+    <t>新北市三重區中興北街134號</t>
+  </si>
+  <si>
+    <t>三重中興北</t>
   </si>
   <si>
     <t>13:00:00</t>
@@ -400,12 +583,42 @@
     <t>裝潢回裝完成</t>
   </si>
   <si>
-    <t>13:20:00</t>
+    <t>16:35:00</t>
+  </si>
+  <si>
+    <t>16:59:00</t>
+  </si>
+  <si>
+    <t>THILF0D620</t>
+  </si>
+  <si>
+    <t>新北市三重區仁愛街253號</t>
+  </si>
+  <si>
+    <t>三重福隆店</t>
   </si>
   <si>
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>T252000125</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行股份有限公司林口文化分行</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號2F(放款部</t>
+  </si>
+  <si>
+    <t>林口文化2F放款部</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
     <t>T252000136</t>
   </si>
   <si>
@@ -418,9 +631,6 @@
     <t>Pm</t>
   </si>
   <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -433,9 +643,6 @@
     <t>新莊</t>
   </si>
   <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
     <t>T301800174</t>
   </si>
   <si>
@@ -445,6 +652,15 @@
     <t>板橋</t>
   </si>
   <si>
+    <t>T302800012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捷旺宅不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區捷運路32號</t>
+  </si>
+  <si>
     <t>08:30:00</t>
   </si>
   <si>
@@ -454,9 +670,6 @@
     <t>新北市三重區正義北路218號(三重分校)</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
     <t>T302800154</t>
   </si>
   <si>
@@ -487,7 +700,16 @@
     <t>五股生鮮物流</t>
   </si>
   <si>
-    <t>pm</t>
+    <t>T351800123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喬治費歇爾機械股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區興德路94號</t>
+  </si>
+  <si>
+    <t>pm 更換上熱 鐵粉</t>
   </si>
   <si>
     <t>T352500148</t>
@@ -562,6 +784,21 @@
     <t>五股運輸</t>
   </si>
   <si>
+    <t>T452800047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eS-4528A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號1F(營業部)</t>
+  </si>
+  <si>
+    <t>林口文化1F營業部</t>
+  </si>
+  <si>
+    <t>更換上熱 OD OD 刮回刮，清潔閘極網</t>
+  </si>
+  <si>
     <t>THILF03921</t>
   </si>
   <si>
@@ -571,9 +808,6 @@
     <t>五股福鑫店</t>
   </si>
   <si>
-    <t>13:50:00</t>
-  </si>
-  <si>
     <t>THILF04316</t>
   </si>
   <si>
@@ -581,6 +815,35 @@
   </si>
   <si>
     <t>五股工商店</t>
+  </si>
+  <si>
+    <t>TX30000077</t>
+  </si>
+  <si>
+    <t>TCx300 POS 終端系統</t>
+  </si>
+  <si>
+    <t>POS商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣泛亞零售管理顧問股份有限公司 </t>
+  </si>
+  <si>
+    <t>台北市中正區八德路一段55號</t>
+  </si>
+  <si>
+    <t>TW10002</t>
+  </si>
+  <si>
+    <t>忠孝新生年度保養
+POS33 POS25 POS24 SCO11 SCO03 SCO01</t>
+  </si>
+  <si>
+    <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>忠孝新生年度保養
+POS22 POS23 POS34 POS32 SCO10 SCO02</t>
   </si>
   <si>
     <t>合計</t>
@@ -997,10 +1260,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1158,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025110319</v>
+        <v>2025110320</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1206,9 +1469,7 @@
       <c r="R3" s="7">
         <v>276</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1216,10 +1477,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1230,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025110320</v>
+        <v>2025110319</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1278,7 +1539,9 @@
       <c r="R4" s="3">
         <v>276</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1286,10 +1549,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -1337,7 +1600,7 @@
         <v>50</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1345,7 +1608,7 @@
         <v>25552</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1354,10 +1617,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1407,7 +1670,7 @@
         <v>50</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1422,10 +1685,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
@@ -1434,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025110355</v>
+        <v>2025110798</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1446,40 +1709,42 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>29400</v>
+        <v>70842</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1488,10 +1753,10 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1502,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025110356</v>
+        <v>2025110799</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1514,37 +1779,39 @@
         <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>29400</v>
+        <v>70842</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1554,10 +1821,10 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
@@ -1566,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025110357</v>
+        <v>2025110355</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1581,41 +1848,37 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="N9" s="8"/>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7">
-        <v>2453</v>
-      </c>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <v>311677</v>
+        <v>29400</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1624,10 +1887,10 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1638,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025110358</v>
+        <v>2025110356</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1653,38 +1916,34 @@
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3">
-        <v>2453</v>
-      </c>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>311677</v>
+        <v>29400</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1694,10 +1953,10 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="3"/>
     </row>
@@ -1706,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025110559</v>
+        <v>2025110357</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1718,7 +1977,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>64</v>
@@ -1729,27 +1988,33 @@
       <c r="I11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L11" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="7">
+        <v>2453</v>
+      </c>
       <c r="R11" s="7">
-        <v>0</v>
+        <v>311677</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1758,10 +2023,10 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -1772,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025110540</v>
+        <v>2025110358</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1784,39 +2049,43 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L12" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3">
+        <v>2453</v>
+      </c>
       <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>311677</v>
+      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1824,21 +2093,19 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025110660</v>
+        <v>2025110559</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1850,30 +2117,30 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1881,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -1890,10 +2157,10 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -1904,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025110620</v>
+        <v>2025110540</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1916,30 +2183,30 @@
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1947,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -1956,10 +2223,10 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB14" s="3">
         <v>1</v>
@@ -1970,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025110572</v>
+        <v>2025111203</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1982,30 +2249,30 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2013,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -2022,10 +2289,10 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2036,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025110603</v>
+        <v>2025110731</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2048,30 +2315,30 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2079,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2088,10 +2355,10 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -2102,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025110089</v>
+        <v>2025110987</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2114,41 +2381,39 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="N17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
         <v>0</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2156,10 +2421,10 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB17" s="7">
         <v>1</v>
@@ -2170,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025110401</v>
+        <v>2025110660</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2182,30 +2447,30 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2213,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2222,19 +2487,21 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB18" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025110517</v>
+        <v>2025110933</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2246,30 +2513,30 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2277,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2286,10 +2553,10 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB19" s="7">
         <v>1</v>
@@ -2300,7 +2567,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025110541</v>
+        <v>2025110931</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2312,39 +2579,41 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="L20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2352,21 +2621,19 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025110143</v>
+        <v>2025111216</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2378,50 +2645,50 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB21" s="7">
         <v>1</v>
@@ -2432,7 +2699,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025110144</v>
+        <v>2025111199</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2444,30 +2711,30 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2475,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2484,10 +2751,10 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -2498,7 +2765,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025110302</v>
+        <v>2025110620</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2507,47 +2774,41 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7">
-        <v>75</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -2556,17 +2817,21 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025110303</v>
+        <v>2025110572</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2575,46 +2840,42 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3">
-        <v>75</v>
-      </c>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>664</v>
-      </c>
-      <c r="S24" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -2622,19 +2883,21 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB24" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025110461</v>
+        <v>2025110603</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2643,45 +2906,41 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>48705</v>
+        <v>0</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -2690,10 +2949,10 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB25" s="7">
         <v>1</v>
@@ -2704,7 +2963,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025110462</v>
+        <v>2025110089</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2713,42 +2972,42 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>48705</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -2758,19 +3017,21 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB26" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025110459</v>
+        <v>2025110401</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2779,45 +3040,41 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>80259</v>
+        <v>0</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -2826,21 +3083,19 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025110460</v>
+        <v>2025111212</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2849,34 +3104,30 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>43</v>
@@ -2884,9 +3135,11 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>80259</v>
-      </c>
-      <c r="S28" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -2894,19 +3147,21 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB28" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025110458</v>
+        <v>2025110517</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2915,34 +3170,30 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="8" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>43</v>
@@ -2950,9 +3201,11 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>4068</v>
-      </c>
-      <c r="S29" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -2960,10 +3213,10 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB29" s="7">
         <v>1</v>
@@ -2974,7 +3227,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025110524</v>
+        <v>2025110744</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2983,44 +3236,42 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="6" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>3173</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3028,10 +3279,10 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB30" s="3">
         <v>1</v>
@@ -3042,7 +3293,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025110679</v>
+        <v>2025110541</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3051,45 +3302,41 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="8" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>117807</v>
+        <v>0</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -3098,17 +3345,21 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025110680</v>
+        <v>2025111261</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3117,34 +3368,30 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="6" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>43</v>
@@ -3152,9 +3399,11 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>117807</v>
-      </c>
-      <c r="S32" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3162,19 +3411,21 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB32" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025110341</v>
+        <v>2025110848</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3183,47 +3434,41 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="8" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7">
-        <v>6296</v>
-      </c>
+      <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>12863</v>
+        <v>0</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -3232,10 +3477,10 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB33" s="7">
         <v>1</v>
@@ -3246,7 +3491,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025110342</v>
+        <v>2025111098</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3255,46 +3500,42 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="6" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3">
-        <v>6296</v>
-      </c>
+      <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>12863</v>
-      </c>
-      <c r="S34" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3302,19 +3543,21 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB34" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025110664</v>
+        <v>2025110739</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3323,45 +3566,41 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="8" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -3370,17 +3609,21 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025110665</v>
+        <v>2025110143</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3389,34 +3632,30 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="6" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>43</v>
@@ -3424,29 +3663,33 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB36" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025110672</v>
+        <v>2025110144</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3455,45 +3698,41 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="8" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>2471</v>
+        <v>0</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -3502,17 +3741,21 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025110673</v>
+        <v>2025110856</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3521,34 +3764,30 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="6" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>43</v>
@@ -3556,9 +3795,11 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>2471</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3566,19 +3807,21 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB38" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025110687</v>
+        <v>2025110902</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3587,68 +3830,66 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="Q39" s="7">
+        <v>1076</v>
+      </c>
       <c r="R39" s="7">
-        <v>2471</v>
-      </c>
-      <c r="S39" s="7"/>
+        <v>55821</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T39" s="7"/>
-      <c r="U39" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB39" s="7">
-        <v>1</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025110670</v>
+        <v>2025110903</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3657,46 +3898,46 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="Q40" s="3">
+        <v>1076</v>
+      </c>
       <c r="R40" s="3">
-        <v>12597</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>55821</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3704,9 +3945,11 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA40" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
@@ -3714,7 +3957,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025110671</v>
+        <v>2025110302</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3723,44 +3966,48 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="7">
+        <v>75</v>
+      </c>
       <c r="R41" s="7">
-        <v>12597</v>
-      </c>
-      <c r="S41" s="7"/>
+        <v>664</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3768,11 +4015,9 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA41" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -3780,7 +4025,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025110688</v>
+        <v>2025110303</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3789,68 +4034,66 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="3">
+        <v>75</v>
+      </c>
       <c r="R42" s="3">
-        <v>12597</v>
+        <v>664</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025110675</v>
+        <v>2025110461</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3859,45 +4102,45 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>32313</v>
+        <v>48705</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -3906,17 +4149,21 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025110676</v>
+        <v>2025110462</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -3925,42 +4172,42 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>32313</v>
+        <v>48705</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -3970,10 +4217,10 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB44" s="3"/>
     </row>
@@ -3982,7 +4229,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025110666</v>
+        <v>2025110459</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -3991,45 +4238,45 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>19808</v>
+        <v>80259</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -4038,17 +4285,21 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025110667</v>
+        <v>2025110460</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4057,42 +4308,42 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>19808</v>
+        <v>80259</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -4102,10 +4353,10 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB46" s="3"/>
     </row>
@@ -4114,7 +4365,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025110148</v>
+        <v>2025110908</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4123,55 +4374,53 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L47" s="8" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>178</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N47" s="8"/>
       <c r="O47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>0</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>52000</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
-      <c r="Y47" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB47" s="7">
         <v>1</v>
@@ -4182,7 +4431,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025110150</v>
+        <v>2025110907</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4191,92 +4440,1902 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L48" s="6" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>182</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N48" s="6"/>
       <c r="O48" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2025110458</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB49" s="9">
-        <v>24</v>
+      <c r="G49" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7">
+        <v>4068</v>
+      </c>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2025110524</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
+        <v>3173</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2025110679</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <v>117807</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2025110680</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
+        <v>117807</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2025111223</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N53" s="8"/>
+      <c r="O53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7">
+        <v>143775</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2025111224</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N54" s="6"/>
+      <c r="O54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
+        <v>143775</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB54" s="3"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2025110341</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7">
+        <v>6296</v>
+      </c>
+      <c r="R55" s="7">
+        <v>12863</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2025110342</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3">
+        <v>6296</v>
+      </c>
+      <c r="R56" s="3">
+        <v>12863</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2025110664</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7">
+        <v>5000</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2025110665</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2025110672</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7">
+        <v>2471</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2025110673</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
+        <v>2471</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2025110687</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7">
+        <v>2471</v>
+      </c>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2025110670</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
+        <v>12597</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2025110671</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7">
+        <v>12597</v>
+      </c>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2025110688</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
+        <v>12597</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2025110675</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7">
+        <v>32313</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2025110676</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
+        <v>32313</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2025110666</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7">
+        <v>19808</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2025110667</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
+        <v>19808</v>
+      </c>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2025110678</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7">
+        <v>85670</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2025110901</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <v>85670</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2025110900</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7">
+        <v>85670</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2025110148</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2025110150</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z73" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2025110838</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2025110839</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB75" s="7"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB76" s="9">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202511_Service_Count_Report.xlsx
+++ b/IM/202511_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$99</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>服務次數統計表        篩選月份：202511</t>
   </si>
@@ -152,18 +152,18 @@
     <t>士林</t>
   </si>
   <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
     <t>抄表</t>
   </si>
   <si>
-    <t>PM抄表</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>服務</t>
-  </si>
-  <si>
     <t>16:06:00</t>
   </si>
   <si>
@@ -242,6 +242,45 @@
     <t>新北市淡水區中正路28號4樓(淡水)</t>
   </si>
   <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>15:45:00</t>
+  </si>
+  <si>
+    <t>THILF02259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區中華路18號</t>
+  </si>
+  <si>
+    <t>三重興華店</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L90</t>
+  </si>
+  <si>
+    <t>15:34:00</t>
+  </si>
+  <si>
+    <t>16:04:00</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>將HUB網路線插回13port</t>
+  </si>
+  <si>
     <t>2025-11-04</t>
   </si>
   <si>
@@ -254,9 +293,6 @@
     <t>THILF02306</t>
   </si>
   <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市八里區中山路一段177號</t>
   </si>
   <si>
@@ -281,6 +317,21 @@
     <t>北縣商港店</t>
   </si>
   <si>
+    <t>11:10:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>THILF02543</t>
+  </si>
+  <si>
+    <t>新北市三重區大仁街78號</t>
+  </si>
+  <si>
+    <t>三重大仁店</t>
+  </si>
+  <si>
     <t>2025-11-06</t>
   </si>
   <si>
@@ -347,6 +398,36 @@
     <t>八里龍米店</t>
   </si>
   <si>
+    <t>16:45:00</t>
+  </si>
+  <si>
+    <t>17:05:00</t>
+  </si>
+  <si>
+    <t>THILF03601</t>
+  </si>
+  <si>
+    <t>新北市三重區光復路一段85、85-2號</t>
+  </si>
+  <si>
+    <t>三重重富店</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>THILF03741</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路三段2號</t>
+  </si>
+  <si>
+    <t>三重重新三</t>
+  </si>
+  <si>
+    <t>取消報修</t>
+  </si>
+  <si>
     <t>THILF03929</t>
   </si>
   <si>
@@ -362,15 +443,6 @@
     <t>10:20:00</t>
   </si>
   <si>
-    <t>一般件</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>維修</t>
-  </si>
-  <si>
     <t>已經將HUB網路線插至正確位置</t>
   </si>
   <si>
@@ -389,6 +461,15 @@
     <t>蘆洲長樂店</t>
   </si>
   <si>
+    <t>THILF04184</t>
+  </si>
+  <si>
+    <t>新北市三重區大仁街52號</t>
+  </si>
+  <si>
+    <t>三重今大店</t>
+  </si>
+  <si>
     <t>11:50:00</t>
   </si>
   <si>
@@ -443,7 +524,13 @@
     <t>八里鐵塔店</t>
   </si>
   <si>
-    <t>16:45:00</t>
+    <t>THILF04539</t>
+  </si>
+  <si>
+    <t>新北市三重區大智街22號及24號</t>
+  </si>
+  <si>
+    <t>三重自信店</t>
   </si>
   <si>
     <t>17:00:00</t>
@@ -478,6 +565,15 @@
     <t>蘆洲洲正店</t>
   </si>
   <si>
+    <t>THILF04698</t>
+  </si>
+  <si>
+    <t>新北市三重區光復路二段117之1號</t>
+  </si>
+  <si>
+    <t>三重頂崁店</t>
+  </si>
+  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -493,7 +589,16 @@
     <t>八里大船店</t>
   </si>
   <si>
-    <t>11:10:00</t>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>THILF04804</t>
+  </si>
+  <si>
+    <t>新北市三重區國隆路19、21、23號</t>
+  </si>
+  <si>
+    <t>三重國隆店</t>
   </si>
   <si>
     <t>THILF04977</t>
@@ -544,9 +649,6 @@
     <t>三重五常店</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
     <t>THILF05341</t>
   </si>
   <si>
@@ -556,9 +658,6 @@
     <t>蘆洲切仔麵</t>
   </si>
   <si>
-    <t>10:40:00</t>
-  </si>
-  <si>
     <t>THILF0D087</t>
   </si>
   <si>
@@ -631,6 +730,21 @@
     <t>Pm</t>
   </si>
   <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>T252000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台固媒體股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服</t>
+  </si>
+  <si>
+    <t>新莊8F客服部</t>
+  </si>
+  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -700,6 +814,15 @@
     <t>五股生鮮物流</t>
   </si>
   <si>
+    <t>T351800081</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服部)</t>
+  </si>
+  <si>
+    <t>新莊8F</t>
+  </si>
+  <si>
     <t>T351800123</t>
   </si>
   <si>
@@ -724,9 +847,6 @@
     <t>新北市三重區光復路1段61巷26號2樓</t>
   </si>
   <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
     <t>T352800011</t>
   </si>
   <si>
@@ -751,9 +871,6 @@
     <t>五股4樓</t>
   </si>
   <si>
-    <t>16:30:00</t>
-  </si>
-  <si>
     <t>送備用碳粉</t>
   </si>
   <si>
@@ -784,6 +901,24 @@
     <t>五股運輸</t>
   </si>
   <si>
+    <t>T451800006</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凱擘股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-10號2樓</t>
+  </si>
+  <si>
+    <t>T451800125</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊8F)</t>
+  </si>
+  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -799,6 +934,9 @@
     <t>更換上熱 OD OD 刮回刮，清潔閘極網</t>
   </si>
   <si>
+    <t>OD OD刮 回刮 上熱 取送分輪</t>
+  </si>
+  <si>
     <t>THILF03921</t>
   </si>
   <si>
@@ -817,16 +955,48 @@
     <t>五股工商店</t>
   </si>
   <si>
+    <t>THILF0D148</t>
+  </si>
+  <si>
+    <t>新北市新莊區福營路336,338號</t>
+  </si>
+  <si>
+    <t>新莊福營店</t>
+  </si>
+  <si>
+    <t>更換手持
+換上8119011800
+換下8119006998</t>
+  </si>
+  <si>
+    <t>更換手持
+換上8119008544
+換下8119006999</t>
+  </si>
+  <si>
+    <t>TX30000058</t>
+  </si>
+  <si>
+    <t>TCx300 POS 終端系統</t>
+  </si>
+  <si>
+    <t>POS商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣泛亞零售管理顧問股份有限公司 </t>
+  </si>
+  <si>
+    <t>台北市萬華區西寧南路123號</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>忠孝新生年度保養
+POS30 POS31 SC009 SCO06 SCO05 SCO04</t>
+  </si>
+  <si>
     <t>TX30000077</t>
-  </si>
-  <si>
-    <t>TCx300 POS 終端系統</t>
-  </si>
-  <si>
-    <t>POS商品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台灣泛亞零售管理顧問股份有限公司 </t>
   </si>
   <si>
     <t>台北市中正區八德路一段55號</t>
@@ -840,6 +1010,10 @@
   </si>
   <si>
     <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>忠孝新生年度保養
+POS01 POS29 POS28 POS27 POS26</t>
   </si>
   <si>
     <t>忠孝新生年度保養
@@ -1260,10 +1434,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1421,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025110320</v>
+        <v>2025110319</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1469,7 +1643,9 @@
       <c r="R3" s="7">
         <v>276</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1477,10 +1653,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1491,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025110319</v>
+        <v>2025110320</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1539,9 +1715,7 @@
       <c r="R4" s="3">
         <v>276</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1549,10 +1723,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -1600,7 +1774,7 @@
         <v>50</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1608,7 +1782,7 @@
         <v>25552</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1617,10 +1791,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1670,7 +1844,7 @@
         <v>50</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1685,10 +1859,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
@@ -1736,7 +1910,7 @@
         <v>58</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1744,7 +1918,7 @@
         <v>70842</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1753,10 +1927,10 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1806,7 +1980,7 @@
         <v>58</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1821,10 +1995,10 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
@@ -1870,7 +2044,7 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1878,7 +2052,7 @@
         <v>29400</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1887,10 +2061,10 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1938,7 +2112,7 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1953,10 +2127,10 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB10" s="3"/>
     </row>
@@ -2004,7 +2178,7 @@
         <v>50</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7">
@@ -2014,7 +2188,7 @@
         <v>311677</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -2023,10 +2197,10 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -2076,7 +2250,7 @@
         <v>50</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3">
@@ -2093,10 +2267,10 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB12" s="3"/>
     </row>
@@ -2105,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025110559</v>
+        <v>2025111461</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2120,47 +2294,47 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
+      <c r="Y13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z13" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2171,7 +2345,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025110540</v>
+        <v>2025111456</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2186,36 +2360,38 @@
         <v>70</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
       <c r="L14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2223,21 +2399,19 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025111203</v>
+        <v>2025110559</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2263,7 +2437,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>87</v>
@@ -2272,7 +2446,7 @@
         <v>88</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2280,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -2289,10 +2463,10 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2303,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025110731</v>
+        <v>2025110540</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2315,30 +2489,30 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2346,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2355,10 +2529,10 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -2369,7 +2543,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025110987</v>
+        <v>2025111469</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2381,7 +2555,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>95</v>
@@ -2395,7 +2569,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>98</v>
@@ -2404,7 +2578,7 @@
         <v>99</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2412,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -2421,10 +2595,10 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB17" s="7">
         <v>1</v>
@@ -2435,7 +2609,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025110660</v>
+        <v>2025111203</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2447,30 +2621,30 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2478,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2487,10 +2661,10 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -2501,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025110933</v>
+        <v>2025110731</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2513,30 +2687,30 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2544,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2553,10 +2727,10 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB19" s="7">
         <v>1</v>
@@ -2567,7 +2741,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025110931</v>
+        <v>2025110987</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2579,41 +2753,39 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2621,19 +2793,21 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB20" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025111216</v>
+        <v>2025110660</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2648,27 +2822,27 @@
         <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2676,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -2685,10 +2859,10 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB21" s="7">
         <v>1</v>
@@ -2699,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025111199</v>
+        <v>2025111478</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2711,30 +2885,30 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2742,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2751,10 +2925,10 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -2765,7 +2939,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025110620</v>
+        <v>2025111313</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2780,36 +2954,38 @@
         <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="L23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2817,10 +2993,10 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB23" s="7">
         <v>1</v>
@@ -2831,7 +3007,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025110572</v>
+        <v>2025110933</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2843,30 +3019,30 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2874,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -2883,10 +3059,10 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB24" s="3">
         <v>1</v>
@@ -2897,7 +3073,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025110603</v>
+        <v>2025110931</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2909,39 +3085,41 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="N25" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="O25" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <v>0</v>
       </c>
-      <c r="S25" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2949,21 +3127,19 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025110089</v>
+        <v>2025111216</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2975,41 +3151,39 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -3017,10 +3191,10 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -3031,7 +3205,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025110401</v>
+        <v>2025111388</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3043,30 +3217,30 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -3074,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -3083,19 +3257,21 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB27" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025111212</v>
+        <v>2025111199</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3107,30 +3283,30 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -3138,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -3147,10 +3323,10 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
@@ -3161,7 +3337,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025110517</v>
+        <v>2025110620</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3173,30 +3349,30 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -3204,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -3213,10 +3389,10 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB29" s="7">
         <v>1</v>
@@ -3227,7 +3403,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025110744</v>
+        <v>2025110572</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3239,30 +3415,30 @@
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3270,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -3279,10 +3455,10 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB30" s="3">
         <v>1</v>
@@ -3293,7 +3469,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025110541</v>
+        <v>2025110603</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3305,30 +3481,30 @@
         <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -3336,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -3345,10 +3521,10 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB31" s="7">
         <v>1</v>
@@ -3359,7 +3535,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025111261</v>
+        <v>2025111442</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3371,13 +3547,13 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>164</v>
@@ -3385,7 +3561,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>165</v>
@@ -3394,7 +3570,7 @@
         <v>166</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3402,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -3411,10 +3587,10 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB32" s="3">
         <v>1</v>
@@ -3425,7 +3601,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025110848</v>
+        <v>2025110089</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3437,39 +3613,41 @@
         <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="L33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
         <v>0</v>
       </c>
-      <c r="S33" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3477,10 +3655,10 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB33" s="7">
         <v>1</v>
@@ -3491,7 +3669,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025111098</v>
+        <v>2025110401</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3503,30 +3681,30 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -3534,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -3543,21 +3721,19 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025110739</v>
+        <v>2025111212</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3569,30 +3745,30 @@
         <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="O35" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -3600,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -3609,10 +3785,10 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB35" s="7">
         <v>1</v>
@@ -3623,7 +3799,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025110143</v>
+        <v>2025111470</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3635,50 +3811,50 @@
         <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
         <v>0</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB36" s="3">
         <v>1</v>
@@ -3689,7 +3865,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025110144</v>
+        <v>2025110517</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3701,30 +3877,30 @@
         <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -3732,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -3741,10 +3917,10 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB37" s="7">
         <v>1</v>
@@ -3755,7 +3931,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025110856</v>
+        <v>2025111429</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3767,30 +3943,30 @@
         <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -3798,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -3807,10 +3983,10 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB38" s="3">
         <v>1</v>
@@ -3821,7 +3997,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025110902</v>
+        <v>2025110744</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3830,47 +4006,41 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="O39" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7"/>
-      <c r="Q39" s="7">
-        <v>1076</v>
-      </c>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>55821</v>
+        <v>0</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -3879,17 +4049,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025110903</v>
+        <v>2025110541</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3898,46 +4072,42 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="6" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3">
-        <v>1076</v>
-      </c>
+      <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>55821</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3945,19 +4115,21 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB40" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025110302</v>
+        <v>2025111261</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3966,47 +4138,41 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P41" s="7"/>
-      <c r="Q41" s="7">
-        <v>75</v>
-      </c>
+      <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -4015,17 +4181,21 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025110303</v>
+        <v>2025110848</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4034,46 +4204,42 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3">
-        <v>75</v>
-      </c>
+      <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>664</v>
-      </c>
-      <c r="S42" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4081,19 +4247,21 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB42" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025110461</v>
+        <v>2025111098</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4102,45 +4270,41 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="8" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>48705</v>
+        <v>0</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -4149,10 +4313,10 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AA43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB43" s="7">
         <v>1</v>
@@ -4163,7 +4327,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025110462</v>
+        <v>2025110739</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4172,34 +4336,30 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="6" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>40</v>
@@ -4207,9 +4367,11 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>48705</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4217,19 +4379,21 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB44" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025110459</v>
+        <v>2025110143</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4238,57 +4402,53 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="8" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>80259</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T45" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="AA45" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB45" s="7">
         <v>1</v>
@@ -4299,7 +4459,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025110460</v>
+        <v>2025110144</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4308,34 +4468,30 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="6" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>40</v>
@@ -4343,9 +4499,11 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>80259</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4353,19 +4511,21 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB46" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025110908</v>
+        <v>2025110856</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4374,42 +4534,42 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="8" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="N47" s="8"/>
+        <v>219</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>52000</v>
-      </c>
-      <c r="S47" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4417,10 +4577,10 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB47" s="7">
         <v>1</v>
@@ -4431,7 +4591,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025110907</v>
+        <v>2025110902</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4440,43 +4600,47 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="N48" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="3">
+        <v>1076</v>
+      </c>
       <c r="R48" s="3">
-        <v>52000</v>
+        <v>55821</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4485,11 +4649,9 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28">
@@ -4497,7 +4659,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025110458</v>
+        <v>2025110903</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4506,42 +4668,44 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
+      <c r="Q49" s="7">
+        <v>1076</v>
+      </c>
       <c r="R49" s="7">
-        <v>4068</v>
+        <v>55821</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -4551,21 +4715,19 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="AA49" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB49" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025110524</v>
+        <v>2025110302</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4574,44 +4736,48 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="Q50" s="3">
+        <v>75</v>
+      </c>
       <c r="R50" s="3">
-        <v>3173</v>
-      </c>
-      <c r="S50" s="3"/>
+        <v>664</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4619,21 +4785,17 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB50" s="3">
-        <v>1</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025110679</v>
+        <v>2025110303</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4642,46 +4804,46 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
+      <c r="Q51" s="7">
+        <v>75</v>
+      </c>
       <c r="R51" s="7">
-        <v>117807</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4689,9 +4851,11 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA51" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
@@ -4699,7 +4863,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025110680</v>
+        <v>2025111300</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4708,44 +4872,48 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="Q52" s="3">
+        <v>3189</v>
+      </c>
       <c r="R52" s="3">
-        <v>117807</v>
-      </c>
-      <c r="S52" s="3"/>
+        <v>1793</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4753,11 +4921,9 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
@@ -4765,7 +4931,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025111223</v>
+        <v>2025111301</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4774,44 +4940,46 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="N53" s="8"/>
+        <v>235</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="O53" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+      <c r="Q53" s="7">
+        <v>3189</v>
+      </c>
       <c r="R53" s="7">
-        <v>143775</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>1793</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4819,9 +4987,11 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA53" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
@@ -4829,7 +4999,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025111224</v>
+        <v>2025110461</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4838,42 +5008,46 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N54" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="O54" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>143775</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>48705</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4881,19 +5055,21 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AA54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB54" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025110341</v>
+        <v>2025110462</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4902,48 +5078,44 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P55" s="7"/>
-      <c r="Q55" s="7">
-        <v>6296</v>
-      </c>
+      <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>12863</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>48705</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -4951,21 +5123,19 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AA55" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB55" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025110342</v>
+        <v>2025110459</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4974,46 +5144,46 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3">
-        <v>6296</v>
-      </c>
+      <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>12863</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>80259</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5021,19 +5191,21 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB56" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025110664</v>
+        <v>2025110460</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5042,34 +5214,34 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
@@ -5077,11 +5249,9 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>5000</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>80259</v>
+      </c>
+      <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5089,9 +5259,11 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA57" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
@@ -5099,7 +5271,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025110665</v>
+        <v>2025110907</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5108,44 +5280,44 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>235</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N58" s="6"/>
       <c r="O58" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S58" s="3"/>
+        <v>52000</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5153,19 +5325,21 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AA58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB58" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025110672</v>
+        <v>2025110908</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5174,46 +5348,42 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>238</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N59" s="8"/>
       <c r="O59" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>2471</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>52000</v>
+      </c>
+      <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5221,9 +5391,11 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA59" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
@@ -5231,7 +5403,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025110673</v>
+        <v>2025110458</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5240,42 +5412,42 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>2471</v>
+        <v>4068</v>
       </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
@@ -5285,19 +5457,21 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AA60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB60" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025110687</v>
+        <v>2025110524</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5306,57 +5480,55 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>2471</v>
+        <v>3173</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
-      <c r="U61" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AA61" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB61" s="7">
         <v>1</v>
@@ -5367,7 +5539,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025110670</v>
+        <v>2025110679</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5376,45 +5548,45 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>12597</v>
+        <v>117807</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -5423,7 +5595,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
@@ -5433,7 +5605,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025110671</v>
+        <v>2025110680</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5442,42 +5614,42 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>12597</v>
+        <v>117807</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -5487,10 +5659,10 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AA63" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB63" s="7"/>
     </row>
@@ -5499,7 +5671,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025110688</v>
+        <v>2025111298</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5508,68 +5680,64 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>12597</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>3050</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T64" s="3"/>
-      <c r="U64" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB64" s="3">
-        <v>1</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025110675</v>
+        <v>2025111299</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5578,34 +5746,34 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>43</v>
@@ -5613,11 +5781,9 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>32313</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>3050</v>
+      </c>
+      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -5625,9 +5791,11 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA65" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
@@ -5635,7 +5803,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025110676</v>
+        <v>2025111223</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5644,44 +5812,44 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>246</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N66" s="6"/>
       <c r="O66" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>32313</v>
-      </c>
-      <c r="S66" s="3"/>
+        <v>143775</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5689,11 +5857,9 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
@@ -5701,7 +5867,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025110666</v>
+        <v>2025111224</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5710,46 +5876,42 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>249</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N67" s="8"/>
       <c r="O67" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>19808</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>143775</v>
+      </c>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5757,9 +5919,11 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA67" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
@@ -5767,7 +5931,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025110667</v>
+        <v>2025110341</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5776,44 +5940,48 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+      <c r="Q68" s="3">
+        <v>6296</v>
+      </c>
       <c r="R68" s="3">
-        <v>19808</v>
-      </c>
-      <c r="S68" s="3"/>
+        <v>12863</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -5821,19 +5989,21 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AA68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB68" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025110678</v>
+        <v>2025110342</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5842,42 +6012,44 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
+      <c r="Q69" s="7">
+        <v>6296</v>
+      </c>
       <c r="R69" s="7">
-        <v>85670</v>
+        <v>12863</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -5887,21 +6059,19 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="AA69" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB69" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025110901</v>
+        <v>2025110664</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -5910,34 +6080,34 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>40</v>
@@ -5945,9 +6115,11 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>85670</v>
-      </c>
-      <c r="S70" s="3"/>
+        <v>5000</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -5955,21 +6127,17 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>1</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025110900</v>
+        <v>2025110665</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -5978,34 +6146,34 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>43</v>
@@ -6013,11 +6181,9 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>85670</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6025,9 +6191,11 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA71" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
@@ -6035,7 +6203,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025110148</v>
+        <v>2025110672</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6044,66 +6212,64 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L72" s="6" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>2471</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-      <c r="Y72" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025110150</v>
+        <v>2025110673</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6112,30 +6278,34 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L73" s="8" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>43</v>
@@ -6143,35 +6313,29 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>0</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>2471</v>
+      </c>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
-      <c r="Y73" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AA73" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB73" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025110838</v>
+        <v>2025110687</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6180,57 +6344,57 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>0</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>2471</v>
+      </c>
+      <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
+      <c r="U74" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AA74" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB74" s="3">
         <v>1</v>
@@ -6241,7 +6405,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025110839</v>
+        <v>2025110670</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6250,45 +6414,45 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>0</v>
+        <v>12597</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
@@ -6297,45 +6461,1597 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA75" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="1:28">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB76" s="9">
-        <v>42</v>
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2025110671</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
+        <v>12597</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB76" s="3"/>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2025110688</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7">
+        <v>12597</v>
+      </c>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2025110675</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
+        <v>32313</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2025110676</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7">
+        <v>32313</v>
+      </c>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB79" s="7"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2025110667</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
+        <v>19808</v>
+      </c>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2025110666</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7">
+        <v>19808</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2025111294</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
+        <v>1806</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2025111295</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7">
+        <v>1806</v>
+      </c>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB83" s="7"/>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2025111296</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
+        <v>90</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2025111297</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7">
+        <v>90</v>
+      </c>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB85" s="7"/>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2025110678</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3">
+        <v>85670</v>
+      </c>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2025110901</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7">
+        <v>85670</v>
+      </c>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2025110900</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3">
+        <v>85670</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7">
+        <v>2025111302</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7">
+        <v>85670</v>
+      </c>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z89" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2025110148</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z90" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7">
+        <v>2025110150</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z91" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2025111324</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>2025111325</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7">
+        <v>0</v>
+      </c>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA93" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB93" s="7"/>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2025111479</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z94" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB94" s="3"/>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2025111462</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7">
+        <v>0</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2025110838</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7">
+        <v>2025111463</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7">
+        <v>0</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2025110839</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB99" s="9">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202511_Service_Count_Report.xlsx
+++ b/IM/202511_Service_Count_Report.xlsx
@@ -4591,7 +4591,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025110902</v>
+        <v>2025110903</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4630,7 +4630,7 @@
         <v>226</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3">
@@ -4639,9 +4639,7 @@
       <c r="R48" s="3">
         <v>55821</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4651,15 +4649,19 @@
       <c r="Z48" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
+      <c r="AA48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025110903</v>
+        <v>2025110902</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4698,7 +4700,7 @@
         <v>226</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7">
@@ -4707,7 +4709,9 @@
       <c r="R49" s="7">
         <v>55821</v>
       </c>
-      <c r="S49" s="7"/>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4717,9 +4721,7 @@
       <c r="Z49" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="AA49" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
@@ -5271,7 +5273,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025110907</v>
+        <v>2025110908</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5308,16 +5310,14 @@
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
         <v>52000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5339,7 +5339,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025110908</v>
+        <v>2025110907</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5376,14 +5376,16 @@
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
         <v>52000</v>
       </c>
-      <c r="S59" s="7"/>
+      <c r="S59" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -6405,7 +6407,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025110670</v>
+        <v>2025110671</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6444,16 +6446,14 @@
         <v>282</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
         <v>12597</v>
       </c>
-      <c r="S75" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
@@ -6463,15 +6463,19 @@
       <c r="Z75" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
+      <c r="AA75" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025110671</v>
+        <v>2025110670</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6510,14 +6514,16 @@
         <v>282</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
         <v>12597</v>
       </c>
-      <c r="S76" s="3"/>
+      <c r="S76" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -6527,9 +6533,7 @@
       <c r="Z76" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
@@ -6739,7 +6743,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025110667</v>
+        <v>2025110666</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6778,14 +6782,16 @@
         <v>288</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
         <v>19808</v>
       </c>
-      <c r="S80" s="3"/>
+      <c r="S80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
@@ -6795,19 +6801,15 @@
       <c r="Z80" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AA80" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB80" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025110666</v>
+        <v>2025110667</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6846,16 +6848,14 @@
         <v>288</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
         <v>19808</v>
       </c>
-      <c r="S81" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -6865,7 +6865,9 @@
       <c r="Z81" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="AA81" s="7"/>
+      <c r="AA81" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
@@ -7205,7 +7207,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025110901</v>
+        <v>2025110900</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7244,14 +7246,16 @@
         <v>298</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
         <v>85670</v>
       </c>
-      <c r="S87" s="7"/>
+      <c r="S87" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7261,19 +7265,15 @@
       <c r="Z87" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="AA87" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB87" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025110900</v>
+        <v>2025110901</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7312,16 +7312,14 @@
         <v>298</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
         <v>85670</v>
       </c>
-      <c r="S88" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7331,7 +7329,9 @@
       <c r="Z88" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AA88" s="3"/>
+      <c r="AA88" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28">

--- a/IM/202511_Service_Count_Report.xlsx
+++ b/IM/202511_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$138</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
   <si>
     <t>服務次數統計表        篩選月份：202511</t>
   </si>
@@ -302,6 +302,40 @@
     <t>PMQ4 L90</t>
   </si>
   <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>15:20:00</t>
+  </si>
+  <si>
+    <t>THILF02399</t>
+  </si>
+  <si>
+    <t>新北市三重區三陽路59號</t>
+  </si>
+  <si>
+    <t>三重三陽店</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119008576
+換上8119013213</t>
+  </si>
+  <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119008317
+換上8119013214</t>
+  </si>
+  <si>
+    <t>15:50:00</t>
+  </si>
+  <si>
     <t>12:10:00</t>
   </si>
   <si>
@@ -470,6 +504,27 @@
     <t>三重今大店</t>
   </si>
   <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>THILF04210</t>
+  </si>
+  <si>
+    <t>新北市三重區五華街70號</t>
+  </si>
+  <si>
+    <t>三重福華店</t>
+  </si>
+  <si>
+    <t>裝潢回裝完成</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
     <t>11:50:00</t>
   </si>
   <si>
@@ -482,9 +537,6 @@
     <t>蘆洲湧蓮店</t>
   </si>
   <si>
-    <t>15:40:00</t>
-  </si>
-  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -507,12 +559,6 @@
   </si>
   <si>
     <t>八里水灣店</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>15:20:00</t>
   </si>
   <si>
     <t>THILF04528</t>
@@ -574,9 +620,6 @@
     <t>三重頂崁店</t>
   </si>
   <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
     <t>10:50:00</t>
   </si>
   <si>
@@ -589,9 +632,6 @@
     <t>八里大船店</t>
   </si>
   <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
     <t>THILF04804</t>
   </si>
   <si>
@@ -667,9 +707,6 @@
     <t>三重中興北</t>
   </si>
   <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
     <t>THILF0D195</t>
   </si>
   <si>
@@ -679,9 +716,6 @@
     <t>三重車路頭</t>
   </si>
   <si>
-    <t>裝潢回裝完成</t>
-  </si>
-  <si>
     <t>16:35:00</t>
   </si>
   <si>
@@ -700,6 +734,39 @@
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>T252000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品興營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市泰山區莊田路與信華三街交叉口(華固一莊)</t>
+  </si>
+  <si>
+    <t>華固一莊</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>T252000086</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街79巷旁工地</t>
+  </si>
+  <si>
+    <t>華固慕川</t>
+  </si>
+  <si>
+    <t>T252000113</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街與元信一街交叉口</t>
+  </si>
+  <si>
+    <t>華固織幸</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
@@ -715,9 +782,6 @@
     <t>林口文化2F放款部</t>
   </si>
   <si>
-    <t>pm</t>
-  </si>
-  <si>
     <t>T252000136</t>
   </si>
   <si>
@@ -745,6 +809,21 @@
     <t>新莊8F客服部</t>
   </si>
   <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>T301800026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市泰山區美寧街57巷34號1樓(異地備援)</t>
+  </si>
+  <si>
+    <t>異地備援泰山</t>
+  </si>
+  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -766,6 +845,27 @@
     <t>板橋</t>
   </si>
   <si>
+    <t>T302800007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財團法人台灣省私立台灣盲人重建院 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號3樓</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>T302800008</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號4樓</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
     <t>T302800012</t>
   </si>
   <si>
@@ -775,21 +875,39 @@
     <t>新北市三重區捷運路32號</t>
   </si>
   <si>
-    <t>08:30:00</t>
-  </si>
-  <si>
     <t>T302800123</t>
   </si>
   <si>
     <t>新北市三重區正義北路218號(三重分校)</t>
   </si>
   <si>
+    <t>T302800152</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(營管部)</t>
+  </si>
+  <si>
+    <t>營管部</t>
+  </si>
+  <si>
+    <t>15:10:00</t>
+  </si>
+  <si>
+    <t>碳粉</t>
+  </si>
+  <si>
+    <t>T302800153</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(走道)</t>
+  </si>
+  <si>
+    <t>走道</t>
+  </si>
+  <si>
     <t>T302800154</t>
   </si>
   <si>
-    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市新莊區中正路651-5號10樓(櫃台2)</t>
   </si>
   <si>
@@ -799,6 +917,24 @@
     <t>設定傳真紙匣</t>
   </si>
   <si>
+    <t>T302800155</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部2)</t>
+  </si>
+  <si>
+    <t>工程部2</t>
+  </si>
+  <si>
+    <t>T302800156</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部1)</t>
+  </si>
+  <si>
+    <t>工程部1</t>
+  </si>
+  <si>
     <t>T351800045</t>
   </si>
   <si>
@@ -823,6 +959,30 @@
     <t>新莊8F</t>
   </si>
   <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>T351800082</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台1)</t>
+  </si>
+  <si>
+    <t>櫃台1</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>T351800085</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(節目部)</t>
+  </si>
+  <si>
+    <t>節目部</t>
+  </si>
+  <si>
     <t>T351800123</t>
   </si>
   <si>
@@ -935,6 +1095,25 @@
   </si>
   <si>
     <t>OD OD刮 回刮 上熱 取送分輪</t>
+  </si>
+  <si>
+    <t>THILF03380</t>
+  </si>
+  <si>
+    <t>新北市新莊區幸福路562號</t>
+  </si>
+  <si>
+    <t>北縣莊勝店</t>
+  </si>
+  <si>
+    <t>更換手持
+換上8119013210
+換下8119008372</t>
+  </si>
+  <si>
+    <t>更換手持
+換上8119012066
+換下8119008631</t>
   </si>
   <si>
     <t>THILF03921</t>
@@ -1010,6 +1189,22 @@
   </si>
   <si>
     <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>14:35:00</t>
+  </si>
+  <si>
+    <t>THILF05496</t>
+  </si>
+  <si>
+    <t>新北市板橋區縣民大道二段22號B1</t>
+  </si>
+  <si>
+    <t>板橋市民廣場</t>
+  </si>
+  <si>
+    <t>新開門市已完工 L90
+網路使用peplunk</t>
   </si>
   <si>
     <t>忠孝新生年度保養
@@ -1434,10 +1629,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A99" sqref="A99"/>
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025110798</v>
+        <v>2025110799</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1910,16 +2105,14 @@
         <v>58</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
         <v>70842</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1941,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025110799</v>
+        <v>2025110798</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1980,14 +2173,16 @@
         <v>58</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3">
         <v>70842</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -2477,7 +2672,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025110540</v>
+        <v>2025111487</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2489,39 +2684,41 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L16" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2529,7 +2726,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
@@ -2543,7 +2740,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025111469</v>
+        <v>2025111486</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2555,39 +2752,41 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="L17" s="8" t="s">
         <v>73</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
         <v>0</v>
       </c>
-      <c r="S17" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2595,21 +2794,19 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025111203</v>
+        <v>2025111599</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2621,16 +2818,16 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2638,10 +2835,10 @@
         <v>73</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>40</v>
@@ -2651,31 +2848,29 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="Y18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z18" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025110731</v>
+        <v>2025110540</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2687,16 +2882,16 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2704,10 +2899,10 @@
         <v>73</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2727,7 +2922,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
@@ -2741,7 +2936,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025110987</v>
+        <v>2025111469</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2753,16 +2948,16 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2770,10 +2965,10 @@
         <v>73</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>40</v>
@@ -2807,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025110660</v>
+        <v>2025111203</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2819,16 +3014,16 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2836,10 +3031,10 @@
         <v>73</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>40</v>
@@ -2873,7 +3068,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025111478</v>
+        <v>2025110731</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2885,16 +3080,16 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2902,10 +3097,10 @@
         <v>73</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>40</v>
@@ -2925,7 +3120,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
@@ -2939,7 +3134,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025111313</v>
+        <v>2025110987</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2951,41 +3146,39 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>9</v>
-      </c>
-      <c r="S23" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2993,7 +3186,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
@@ -3007,7 +3200,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025110933</v>
+        <v>2025110660</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -3019,16 +3212,16 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3036,10 +3229,10 @@
         <v>73</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>40</v>
@@ -3073,7 +3266,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025110931</v>
+        <v>2025111478</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3085,41 +3278,39 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
         <v>73</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <v>0</v>
       </c>
-      <c r="S25" s="7"/>
+      <c r="S25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -3127,19 +3318,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="7"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025111216</v>
+        <v>2025111313</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3151,39 +3344,41 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L26" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -3191,7 +3386,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
@@ -3205,7 +3400,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025111388</v>
+        <v>2025110933</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3217,16 +3412,16 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -3234,10 +3429,10 @@
         <v>73</v>
       </c>
       <c r="M27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3271,7 +3466,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025111199</v>
+        <v>2025110931</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3283,39 +3478,41 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
         <v>0</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3323,21 +3520,19 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025110620</v>
+        <v>2025111216</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3349,16 +3544,16 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3366,10 +3561,10 @@
         <v>73</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>40</v>
@@ -3403,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025110572</v>
+        <v>2025111388</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3415,16 +3610,16 @@
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3432,10 +3627,10 @@
         <v>73</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>40</v>
@@ -3469,7 +3664,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025110603</v>
+        <v>2025111559</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3481,16 +3676,16 @@
         <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -3498,10 +3693,10 @@
         <v>73</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -3511,17 +3706,17 @@
       <c r="R31" s="7">
         <v>0</v>
       </c>
-      <c r="S31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
@@ -3535,7 +3730,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025111442</v>
+        <v>2025111560</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3547,16 +3742,16 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -3564,10 +3759,10 @@
         <v>73</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>40</v>
@@ -3601,7 +3796,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025110089</v>
+        <v>2025111199</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3613,41 +3808,39 @@
         <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="8" t="s">
         <v>73</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
         <v>0</v>
       </c>
-      <c r="S33" s="7"/>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3655,7 +3848,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>41</v>
@@ -3669,7 +3862,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025110401</v>
+        <v>2025110620</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3681,13 +3874,13 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>168</v>
@@ -3726,14 +3919,16 @@
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025111212</v>
+        <v>2025110572</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3745,16 +3940,16 @@
         <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -3762,10 +3957,10 @@
         <v>73</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -3799,7 +3994,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025111470</v>
+        <v>2025110603</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3811,16 +4006,16 @@
         <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3828,10 +4023,10 @@
         <v>73</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>40</v>
@@ -3865,7 +4060,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025110517</v>
+        <v>2025111442</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3877,16 +4072,16 @@
         <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -3894,10 +4089,10 @@
         <v>73</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>40</v>
@@ -3931,7 +4126,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025111429</v>
+        <v>2025110089</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3943,39 +4138,41 @@
         <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L38" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
         <v>0</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3983,7 +4180,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -3997,7 +4194,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025110744</v>
+        <v>2025110401</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4009,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -4026,10 +4223,10 @@
         <v>73</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -4054,16 +4251,14 @@
       <c r="AA39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB39" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025110541</v>
+        <v>2025111212</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4075,16 +4270,16 @@
         <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -4092,10 +4287,10 @@
         <v>73</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
@@ -4129,7 +4324,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025111261</v>
+        <v>2025111470</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4141,16 +4336,16 @@
         <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -4158,10 +4353,10 @@
         <v>73</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>40</v>
@@ -4195,7 +4390,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025110848</v>
+        <v>2025110517</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4207,16 +4402,16 @@
         <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -4224,10 +4419,10 @@
         <v>73</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
@@ -4261,7 +4456,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025111098</v>
+        <v>2025111429</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4273,16 +4468,16 @@
         <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -4290,10 +4485,10 @@
         <v>73</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>40</v>
@@ -4327,7 +4522,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025110739</v>
+        <v>2025110744</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4342,13 +4537,13 @@
         <v>51</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -4356,10 +4551,10 @@
         <v>73</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>40</v>
@@ -4393,7 +4588,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025110143</v>
+        <v>2025110541</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4405,16 +4600,16 @@
         <v>30</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -4422,10 +4617,10 @@
         <v>73</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>40</v>
@@ -4435,17 +4630,17 @@
       <c r="R45" s="7">
         <v>0</v>
       </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
@@ -4459,7 +4654,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025110144</v>
+        <v>2025111261</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4471,16 +4666,16 @@
         <v>30</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4488,10 +4683,10 @@
         <v>73</v>
       </c>
       <c r="M46" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>40</v>
@@ -4525,7 +4720,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025110856</v>
+        <v>2025110848</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4540,13 +4735,13 @@
         <v>51</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -4554,10 +4749,10 @@
         <v>73</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
@@ -4591,7 +4786,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025110903</v>
+        <v>2025111098</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4600,46 +4795,42 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>106</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="6" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3">
-        <v>1076</v>
-      </c>
+      <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>55821</v>
-      </c>
-      <c r="S48" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4647,7 +4838,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
@@ -4661,7 +4852,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025110902</v>
+        <v>2025110739</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4670,44 +4861,38 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="N49" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P49" s="7"/>
-      <c r="Q49" s="7">
-        <v>1076</v>
-      </c>
+      <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>55821</v>
+        <v>0</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>41</v>
@@ -4719,17 +4904,21 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025110302</v>
+        <v>2025110143</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4738,66 +4927,64 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3">
-        <v>75</v>
-      </c>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>664</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T50" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025110303</v>
+        <v>2025110144</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4806,46 +4993,42 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P51" s="7"/>
-      <c r="Q51" s="7">
-        <v>75</v>
-      </c>
+      <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>664</v>
-      </c>
-      <c r="S51" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4853,19 +5036,21 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB51" s="7"/>
+      <c r="AB51" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025111300</v>
+        <v>2025110856</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4874,44 +5059,38 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="6" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3">
-        <v>3189</v>
-      </c>
+      <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>1793</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>41</v>
@@ -4923,17 +5102,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025111301</v>
+        <v>2025111646</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4942,19 +5125,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>35</v>
@@ -4963,25 +5146,29 @@
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="N53" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="O53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P53" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P53" s="7">
+        <v>6868</v>
+      </c>
       <c r="Q53" s="7">
-        <v>3189</v>
+        <v>15339</v>
       </c>
       <c r="R53" s="7">
-        <v>1793</v>
-      </c>
-      <c r="S53" s="7"/>
+        <v>20204</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4989,19 +5176,21 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7"/>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025110461</v>
+        <v>2025111647</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5010,46 +5199,48 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P54" s="3">
+        <v>6868</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>15339</v>
+      </c>
       <c r="R54" s="3">
-        <v>48705</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>20204</v>
+      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -5057,21 +5248,19 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB54" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025110462</v>
+        <v>2025111644</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5080,44 +5269,50 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="H55" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="J55" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="M55" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="N55" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="N55" s="8" t="s">
-        <v>240</v>
-      </c>
       <c r="O55" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P55" s="7">
+        <v>1844</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>2679</v>
+      </c>
       <c r="R55" s="7">
-        <v>48705</v>
-      </c>
-      <c r="S55" s="7"/>
+        <v>8389</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5125,19 +5320,21 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7"/>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025110459</v>
+        <v>2025111645</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5146,46 +5343,48 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P56" s="3">
+        <v>1844</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>2679</v>
+      </c>
       <c r="R56" s="3">
-        <v>80259</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>8389</v>
+      </c>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5193,21 +5392,19 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB56" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025110460</v>
+        <v>2025111648</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5216,44 +5413,50 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="M57" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="N57" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="O57" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P57" s="7">
+        <v>157</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>947</v>
+      </c>
       <c r="R57" s="7">
-        <v>80259</v>
-      </c>
-      <c r="S57" s="7"/>
+        <v>3712</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5261,19 +5464,21 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7"/>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025110908</v>
+        <v>2025111649</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5282,40 +5487,46 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="N58" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="O58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="P58" s="3">
+        <v>157</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>947</v>
+      </c>
       <c r="R58" s="3">
-        <v>52000</v>
+        <v>3712</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -5325,21 +5536,19 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB58" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025110907</v>
+        <v>2025110902</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5348,22 +5557,22 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>244</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
@@ -5374,14 +5583,18 @@
       <c r="M59" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="N59" s="8"/>
+      <c r="N59" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="O59" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
+      <c r="Q59" s="7">
+        <v>1076</v>
+      </c>
       <c r="R59" s="7">
-        <v>52000</v>
+        <v>55821</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>41</v>
@@ -5393,11 +5606,9 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA59" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
@@ -5405,7 +5616,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025110458</v>
+        <v>2025110903</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5414,42 +5625,44 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
+      <c r="Q60" s="3">
+        <v>1076</v>
+      </c>
       <c r="R60" s="3">
-        <v>4068</v>
+        <v>55821</v>
       </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
@@ -5459,21 +5672,19 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB60" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025110524</v>
+        <v>2025110302</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5482,44 +5693,48 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
+      <c r="Q61" s="7">
+        <v>75</v>
+      </c>
       <c r="R61" s="7">
-        <v>3173</v>
-      </c>
-      <c r="S61" s="7"/>
+        <v>664</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
@@ -5527,21 +5742,17 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA61" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB61" s="7">
-        <v>1</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025110679</v>
+        <v>2025110303</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5550,46 +5761,46 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="Q62" s="3">
+        <v>75</v>
+      </c>
       <c r="R62" s="3">
-        <v>117807</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5597,9 +5808,11 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA62" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28">
@@ -5607,7 +5820,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025110680</v>
+        <v>2025111300</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5616,44 +5829,48 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
+      <c r="Q63" s="7">
+        <v>3189</v>
+      </c>
       <c r="R63" s="7">
-        <v>117807</v>
-      </c>
-      <c r="S63" s="7"/>
+        <v>1793</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -5661,11 +5878,9 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA63" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
@@ -5673,7 +5888,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025111298</v>
+        <v>2025111301</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5682,46 +5897,46 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" s="3">
+        <v>3189</v>
+      </c>
       <c r="R64" s="3">
-        <v>3050</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>1793</v>
+      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5729,9 +5944,11 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA64" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
@@ -5739,7 +5956,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025111299</v>
+        <v>2025111541</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5748,44 +5965,46 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M65" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="N65" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="O65" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>3050</v>
-      </c>
-      <c r="S65" s="7"/>
+        <v>653</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -5793,19 +6012,21 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB65" s="7"/>
+      <c r="AB65" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025111223</v>
+        <v>2025111542</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5814,44 +6035,44 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="N66" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="O66" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>143775</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5859,9 +6080,11 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA66" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
@@ -5869,7 +6092,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025111224</v>
+        <v>2025110461</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5878,42 +6101,46 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>263</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="N67" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="N67" s="8"/>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>143775</v>
-      </c>
-      <c r="S67" s="7"/>
+        <v>48705</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5921,19 +6148,21 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" s="7"/>
+      <c r="AB67" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025110341</v>
+        <v>2025110462</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5942,48 +6171,44 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3">
-        <v>6296</v>
-      </c>
+      <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>12863</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>48705</v>
+      </c>
+      <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -5991,21 +6216,19 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB68" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025110342</v>
+        <v>2025110459</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6014,46 +6237,46 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P69" s="7"/>
-      <c r="Q69" s="7">
-        <v>6296</v>
-      </c>
+      <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>12863</v>
-      </c>
-      <c r="S69" s="7"/>
+        <v>80259</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -6061,19 +6284,21 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB69" s="7"/>
+      <c r="AB69" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025110664</v>
+        <v>2025110460</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6082,46 +6307,44 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>273</v>
+        <v>48</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>80259</v>
+      </c>
+      <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -6129,9 +6352,11 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA70" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
@@ -6139,7 +6364,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025110665</v>
+        <v>2025111651</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6148,44 +6373,46 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>5000</v>
-      </c>
-      <c r="S71" s="7"/>
+        <v>159470</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6193,19 +6420,21 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB71" s="7"/>
+      <c r="AB71" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025110672</v>
+        <v>2025111652</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6214,46 +6443,44 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>2471</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>159470</v>
+      </c>
+      <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6261,9 +6488,11 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA72" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
@@ -6271,7 +6500,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025110673</v>
+        <v>2025111654</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6280,44 +6509,46 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>2471</v>
-      </c>
-      <c r="S73" s="7"/>
+        <v>146710</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -6325,19 +6556,21 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB73" s="7"/>
+      <c r="AB73" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025110687</v>
+        <v>2025111655</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6346,68 +6579,64 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>2471</v>
+        <v>146710</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB74" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025110671</v>
+        <v>2025110907</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6416,44 +6645,44 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N75" s="8"/>
       <c r="O75" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>12597</v>
-      </c>
-      <c r="S75" s="7"/>
+        <v>52000</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
@@ -6461,7 +6690,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
@@ -6475,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025110670</v>
+        <v>2025110908</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6484,46 +6713,42 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N76" s="6"/>
       <c r="O76" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>12597</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>52000</v>
+      </c>
+      <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -6531,9 +6756,11 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA76" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
@@ -6541,7 +6768,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025110688</v>
+        <v>2025110458</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6550,54 +6777,52 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>12597</v>
+        <v>4068</v>
       </c>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
-      <c r="U77" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
@@ -6611,7 +6836,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025110675</v>
+        <v>2025111543</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6620,34 +6845,34 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>40</v>
@@ -6655,7 +6880,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>32313</v>
+        <v>8211</v>
       </c>
       <c r="S78" s="3" t="s">
         <v>41</v>
@@ -6667,17 +6892,21 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025110676</v>
+        <v>2025111544</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6686,34 +6915,34 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>43</v>
@@ -6721,7 +6950,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>32313</v>
+        <v>8211</v>
       </c>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -6731,7 +6960,7 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA79" s="7" t="s">
         <v>41</v>
@@ -6743,7 +6972,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025110666</v>
+        <v>2025111594</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6752,34 +6981,34 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>40</v>
@@ -6787,29 +7016,33 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>19808</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>8211</v>
+      </c>
+      <c r="S80" s="3"/>
       <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
+      <c r="U80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025110667</v>
+        <v>2025111545</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6818,28 +7051,28 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>286</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>287</v>
@@ -6848,14 +7081,16 @@
         <v>288</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>19808</v>
-      </c>
-      <c r="S81" s="7"/>
+        <v>9341</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -6863,19 +7098,21 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA81" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB81" s="7"/>
+      <c r="AB81" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025111294</v>
+        <v>2025111546</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -6884,46 +7121,44 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>1806</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>9341</v>
+      </c>
+      <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -6931,9 +7166,11 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA82" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
@@ -6941,7 +7178,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025111295</v>
+        <v>2025111595</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -6950,64 +7187,68 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>1806</v>
+        <v>9341</v>
       </c>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
+      <c r="U83" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB83" s="7"/>
+      <c r="AB83" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025111296</v>
+        <v>2025110524</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7016,46 +7257,44 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>90</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>3173</v>
+      </c>
+      <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7063,17 +7302,21 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025111297</v>
+        <v>2025111547</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7082,44 +7325,46 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>90</v>
-      </c>
-      <c r="S85" s="7"/>
+        <v>6114</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7127,19 +7372,21 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB85" s="7"/>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025110678</v>
+        <v>2025111548</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7148,42 +7395,42 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>85670</v>
+        <v>6114</v>
       </c>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
@@ -7193,21 +7440,19 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="AA86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB86" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025110900</v>
+        <v>2025111596</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7216,34 +7461,34 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>40</v>
@@ -7251,29 +7496,33 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>85670</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>6114</v>
+      </c>
+      <c r="S87" s="7"/>
       <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
+      <c r="U87" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="AA87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025110901</v>
+        <v>2025111549</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7282,44 +7531,46 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>85670</v>
-      </c>
-      <c r="S88" s="3"/>
+        <v>7819</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7327,19 +7578,21 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AA88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB88" s="3"/>
+      <c r="AB88" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025111302</v>
+        <v>2025111550</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7348,42 +7601,42 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>85670</v>
+        <v>7819</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -7391,25 +7644,21 @@
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
-      <c r="Y89" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="AA89" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB89" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB89" s="7"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025110148</v>
+        <v>2025111597</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7418,30 +7667,34 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L90" s="6" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>40</v>
@@ -7449,21 +7702,19 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>0</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>7819</v>
+      </c>
+      <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
+      <c r="U90" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-      <c r="Y90" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="AA90" s="3" t="s">
         <v>41</v>
@@ -7477,7 +7728,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025110150</v>
+        <v>2025111551</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7486,30 +7737,34 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L91" s="8" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>40</v>
@@ -7517,7 +7772,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7">
-        <v>0</v>
+        <v>4596</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>41</v>
@@ -7527,11 +7782,9 @@
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
-      <c r="Y91" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="AA91" s="7" t="s">
         <v>41</v>
@@ -7545,7 +7798,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025111324</v>
+        <v>2025111552</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -7554,42 +7807,42 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3">
-        <v>0</v>
+        <v>4596</v>
       </c>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
@@ -7599,21 +7852,19 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="AA92" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB92" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB92" s="3"/>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025111325</v>
+        <v>2025111598</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -7622,64 +7873,68 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>0</v>
+        <v>4596</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
+      <c r="U93" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB93" s="7"/>
+      <c r="AB93" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025111479</v>
+        <v>2025110679</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -7688,30 +7943,34 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G94" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="I94" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L94" s="6" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>40</v>
@@ -7719,7 +7978,7 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>117807</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>41</v>
@@ -7729,15 +7988,11 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-      <c r="Y94" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA94" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
     </row>
     <row r="95" spans="1:28">
@@ -7745,7 +8000,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025111462</v>
+        <v>2025110680</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -7754,46 +8009,44 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7">
-        <v>0</v>
-      </c>
-      <c r="S95" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>117807</v>
+      </c>
+      <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
@@ -7801,21 +8054,19 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="AA95" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB95" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB95" s="7"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025110838</v>
+        <v>2025111298</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -7824,34 +8075,34 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>40</v>
@@ -7859,7 +8110,7 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="S96" s="3" t="s">
         <v>41</v>
@@ -7871,21 +8122,17 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA96" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>1</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="7">
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025111463</v>
+        <v>2025111299</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -7894,46 +8141,44 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>0</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3050</v>
+      </c>
+      <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
@@ -7941,21 +8186,19 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="AA97" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB97" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB97" s="7"/>
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025110839</v>
+        <v>2025111553</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -7964,34 +8207,34 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>40</v>
@@ -7999,7 +8242,7 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="S98" s="3" t="s">
         <v>41</v>
@@ -8011,47 +8254,2669 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7">
+        <v>2025111554</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7">
+        <v>173</v>
+      </c>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB99" s="7"/>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2025111555</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
+        <v>2461</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7">
+        <v>2025111556</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7">
+        <v>2461</v>
+      </c>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB101" s="7"/>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2025111223</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="N102" s="6"/>
+      <c r="O102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
+        <v>143775</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7">
+        <v>2025111224</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="N103" s="8"/>
+      <c r="O103" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7">
+        <v>143775</v>
+      </c>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB103" s="7"/>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2025110341</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3">
+        <v>6296</v>
+      </c>
+      <c r="R104" s="3">
+        <v>12863</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2025110342</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7">
+        <v>6296</v>
+      </c>
+      <c r="R105" s="7">
+        <v>12863</v>
+      </c>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB105" s="7"/>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2025110664</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L106" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AA98" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB98" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
-      <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="10"/>
-      <c r="AA99" s="9" t="s">
+      <c r="M106" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AB99" s="9">
-        <v>56</v>
+      <c r="N106" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7">
+        <v>2025110665</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7">
+        <v>5000</v>
+      </c>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB107" s="7"/>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2025110672</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3">
+        <v>2471</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2025110673</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7">
+        <v>2471</v>
+      </c>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB109" s="7"/>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2025110687</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3">
+        <v>2471</v>
+      </c>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7">
+        <v>2025110670</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7">
+        <v>12597</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA111" s="7"/>
+      <c r="AB111" s="7"/>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2025110671</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3">
+        <v>12597</v>
+      </c>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB112" s="3"/>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7">
+        <v>2025110688</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7">
+        <v>12597</v>
+      </c>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2025110676</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3">
+        <v>32313</v>
+      </c>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7">
+        <v>2025110675</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7">
+        <v>32313</v>
+      </c>
+      <c r="S115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="7"/>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2025110666</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3">
+        <v>19808</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7">
+        <v>2025110667</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7">
+        <v>19808</v>
+      </c>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA117" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB117" s="7"/>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2025111294</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3">
+        <v>1806</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7">
+        <v>2025111295</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7">
+        <v>1806</v>
+      </c>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB119" s="7"/>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2025111296</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3">
+        <v>90</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7">
+        <v>2025111297</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7">
+        <v>90</v>
+      </c>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB121" s="7"/>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2025110678</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3">
+        <v>85670</v>
+      </c>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA122" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" s="7">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7">
+        <v>2025110900</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7">
+        <v>85670</v>
+      </c>
+      <c r="S123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA123" s="7"/>
+      <c r="AB123" s="7"/>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2025110901</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3">
+        <v>85670</v>
+      </c>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA124" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB124" s="3"/>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" s="7">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7">
+        <v>2025111302</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="N125" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="O125" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7">
+        <v>85670</v>
+      </c>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7"/>
+      <c r="Y125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z125" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2025111394</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3">
+        <v>0</v>
+      </c>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" s="7">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7">
+        <v>2025111395</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7">
+        <v>0</v>
+      </c>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA127" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB127" s="7"/>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2025110148</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3">
+        <v>0</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z128" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" s="7">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7">
+        <v>2025110150</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7">
+        <v>0</v>
+      </c>
+      <c r="S129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+      <c r="W129" s="7"/>
+      <c r="X129" s="7"/>
+      <c r="Y129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z129" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>2025111324</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3">
+        <v>0</v>
+      </c>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="7">
+        <v>2025111325</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7">
+        <v>0</v>
+      </c>
+      <c r="S131" s="7"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA131" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB131" s="7"/>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2025111479</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3">
+        <v>0</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z132" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB132" s="3"/>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" s="7">
+        <v>131</v>
+      </c>
+      <c r="B133" s="7">
+        <v>2025111462</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7">
+        <v>0</v>
+      </c>
+      <c r="S133" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA133" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2025110838</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3">
+        <v>0</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" s="7">
+        <v>133</v>
+      </c>
+      <c r="B135" s="7">
+        <v>2025111577</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="O135" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7">
+        <v>0</v>
+      </c>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA135" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2025111463</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3">
+        <v>0</v>
+      </c>
+      <c r="S136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="7">
+        <v>135</v>
+      </c>
+      <c r="B137" s="7">
+        <v>2025110839</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="O137" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7">
+        <v>0</v>
+      </c>
+      <c r="S137" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA137" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="9"/>
+      <c r="T138" s="9"/>
+      <c r="U138" s="9"/>
+      <c r="V138" s="9"/>
+      <c r="W138" s="9"/>
+      <c r="X138" s="9"/>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="10"/>
+      <c r="AA138" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB138" s="9">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
